--- a/neat-taxonomy.xlsx
+++ b/neat-taxonomy.xlsx
@@ -652,7 +652,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NEAT: Wind  Energy tAxonomy of Topics</t>
+          <t>NEAT: wiNd Energy tAxonomy of Topics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
